--- a/venta_departamento_de-los-rios.xlsx
+++ b/venta_departamento_de-los-rios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,21 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
@@ -34,15 +49,72 @@
     <t>$ 93.780.614</t>
   </si>
   <si>
+    <t>-39.81262</t>
+  </si>
+  <si>
+    <t>-73.23805</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/6517-costanera-valdivia-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Condominio Jardín Urbano IV</t>
+  </si>
+  <si>
+    <t>$ 38.864.518</t>
+  </si>
+  <si>
+    <t>-39.82526</t>
+  </si>
+  <si>
+    <t>-73.21659</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/6968-condominio-jardin-urbano-iv-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Edificio Río Calle Calle</t>
+  </si>
+  <si>
+    <t>$ 72.405.129</t>
+  </si>
+  <si>
+    <t>-39.82284</t>
+  </si>
+  <si>
+    <t>-73.24794</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/6853-edificio-rio-calle-calle-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Condominio Haverbeck</t>
+  </si>
+  <si>
+    <t>$ 57.019.039</t>
+  </si>
+  <si>
+    <t>-39.82827</t>
+  </si>
+  <si>
+    <t>-73.25065</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/5292-condominio-haverbeck-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Brisas de la Ribera Departamentos</t>
   </si>
   <si>
     <t>$ 40.807.744</t>
   </si>
   <si>
+    <t>-39.79276</t>
+  </si>
+  <si>
+    <t>-73.21828</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/7087-brisas-de-la-ribera-departamentos-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -52,42 +124,27 @@
     <t>$ 60.692.535</t>
   </si>
   <si>
+    <t>-39.80775</t>
+  </si>
+  <si>
+    <t>-73.26798</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/7208-parque-rio-cruces-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Edificio Río Calle Calle</t>
-  </si>
-  <si>
-    <t>$ 72.405.129</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/6853-edificio-rio-calle-calle-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Jardín Urbano IV</t>
-  </si>
-  <si>
-    <t>$ 38.864.518</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/6968-condominio-jardin-urbano-iv-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Haverbeck</t>
-  </si>
-  <si>
-    <t>$ 57.019.039</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/5292-condominio-haverbeck-nva?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Lindo Departamento Nuevo, Valdivia</t>
   </si>
   <si>
     <t>$ 48.394.311</t>
   </si>
   <si>
+    <t>-39.82178</t>
+  </si>
+  <si>
+    <t>-73.22913</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3571193-lindo-departamento-nuevo-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -97,6 +154,12 @@
     <t>$ 68.056.767</t>
   </si>
   <si>
+    <t>-39.82754</t>
+  </si>
+  <si>
+    <t>-73.21984</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3414106-lindo-departamento-en-condominio-jardin-urbano-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -106,6 +169,12 @@
     <t>$ 73.070.618</t>
   </si>
   <si>
+    <t>-39.82224</t>
+  </si>
+  <si>
+    <t>-73.22930</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3569498-departamento-nuevo-en-calle-errazuriz-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -115,6 +184,12 @@
     <t>$ 73.369.172</t>
   </si>
   <si>
+    <t>-39.83727</t>
+  </si>
+  <si>
+    <t>-73.22660</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3312695-lindo-departamento-en-condominio-lomas-del-rio-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -124,6 +199,12 @@
     <t>$ 85.342.222</t>
   </si>
   <si>
+    <t>-39.80770</t>
+  </si>
+  <si>
+    <t>-73.26790</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3514861-nuevo-proyecto-inmobiliario-isla-teja-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -133,6 +214,12 @@
     <t>$ 109.140.084</t>
   </si>
   <si>
+    <t>-39.82370</t>
+  </si>
+  <si>
+    <t>-73.27650</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3516508-moderno-departamento-con-hermosa-vista-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -142,6 +229,12 @@
     <t>$ 119.841.137</t>
   </si>
   <si>
+    <t>-39.80270</t>
+  </si>
+  <si>
+    <t>-73.26810</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3517054-departamento-isla-teja-buena-ubicacion-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -151,6 +244,12 @@
     <t>$ 120.160.571</t>
   </si>
   <si>
+    <t>-39.81770</t>
+  </si>
+  <si>
+    <t>-73.24410</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3557193-moderno-departamento-central-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -160,6 +259,12 @@
     <t>$ 129.903.320</t>
   </si>
   <si>
+    <t>-39.80360</t>
+  </si>
+  <si>
+    <t>-73.25940</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3516719-nueva-oficina-en-centro-de-valdivia-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -175,6 +280,12 @@
     <t>los robles 1100, Valdivia</t>
   </si>
   <si>
+    <t>-39.80664</t>
+  </si>
+  <si>
+    <t>-73.26917</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3401454-los-robles-1100-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -184,6 +295,12 @@
     <t>$ 138.421.571</t>
   </si>
   <si>
+    <t>-39.80663</t>
+  </si>
+  <si>
+    <t>-73.26916</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3538129-espectacular-departamento-duplex-en-isla-teja-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -193,6 +310,12 @@
     <t>$ 155.138.637</t>
   </si>
   <si>
+    <t>-39.80952</t>
+  </si>
+  <si>
+    <t>-73.25552</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3527374-hermoso-departamento-en-isla-teja-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -202,6 +325,12 @@
     <t>$ 167.197.286</t>
   </si>
   <si>
+    <t>-39.80603</t>
+  </si>
+  <si>
+    <t>-73.26630</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3569119-hermoso-departamento-en-isla-teja-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -211,6 +340,12 @@
     <t>$ 169.113.892</t>
   </si>
   <si>
+    <t>-39.80780</t>
+  </si>
+  <si>
+    <t>-73.26800</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3515545-nuevo-proyecto-inmobiliario-ribera-del-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -220,6 +355,12 @@
     <t>$ 172.095.280</t>
   </si>
   <si>
+    <t>-39.61670</t>
+  </si>
+  <si>
+    <t>-73.16670</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3512109-impecable-departamento-con-vista-al-rio-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -247,6 +388,12 @@
     <t>$ 181.012.823</t>
   </si>
   <si>
+    <t>-39.80588</t>
+  </si>
+  <si>
+    <t>-73.26766</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/2801338-hermoso-departamento-de-3-dormitorios-en-septimo-piso-isla-teja-valdivia-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -283,6 +430,12 @@
     <t>$ 266.195.328</t>
   </si>
   <si>
+    <t>-39.61940</t>
+  </si>
+  <si>
+    <t>-73.16100</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3513547-maravilloso-departamento-vista-rio-cruce-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -298,6 +451,12 @@
     <t>$ 319.567.491</t>
   </si>
   <si>
+    <t>-39.80910</t>
+  </si>
+  <si>
+    <t>-73.24370</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3514588-vista-inigualable-departamento-duplex-co-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -307,6 +466,12 @@
     <t>$ 359.363.693</t>
   </si>
   <si>
+    <t>-39.81852</t>
+  </si>
+  <si>
+    <t>-73.16952</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3518111-increible-oportunidad-inversionistas-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -314,6 +479,12 @@
   </si>
   <si>
     <t>$ 130.063.037</t>
+  </si>
+  <si>
+    <t>-39.81440</t>
+  </si>
+  <si>
+    <t>-73.24650</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/valdivia-de-los-rios/3576933-departamento-en-centro-de-valdivia-uda?tp=2&amp;op=1&amp;iug=453&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
@@ -657,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +838,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,534 +851,1074 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>6517</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>41.4</v>
+      </c>
+      <c r="E2">
+        <v>102.9</v>
+      </c>
+      <c r="F2">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
+        <v>6968</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>36.54</v>
+      </c>
+      <c r="E3">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="F3">
+        <v>53.02500000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>6853</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>35.1</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>87.55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>5292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>56.68</v>
+      </c>
+      <c r="E5">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="F5">
+        <v>72.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>7087</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>41.31</v>
+      </c>
+      <c r="E6">
+        <v>60.46</v>
+      </c>
+      <c r="F6">
+        <v>50.88500000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>7208</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>6853</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>6968</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5292</v>
-      </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>41.68</v>
+      </c>
+      <c r="E7">
+        <v>88.64</v>
+      </c>
+      <c r="F7">
+        <v>65.16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>3571193</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>25.23</v>
+      </c>
+      <c r="E8">
+        <v>25.23</v>
+      </c>
+      <c r="F8">
+        <v>25.23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3414106</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3569498</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>40.57</v>
+      </c>
+      <c r="E10">
+        <v>43.08</v>
+      </c>
+      <c r="F10">
+        <v>41.825</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3312695</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3514861</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>3516508</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>3517054</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3557193</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>124</v>
+      </c>
+      <c r="F15">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3516719</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>3516843</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3401454</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3538129</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>3527374</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <v>105</v>
+      </c>
+      <c r="F20">
+        <v>103.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>3569119</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>111</v>
+      </c>
+      <c r="F21">
+        <v>103.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3515545</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>102</v>
+      </c>
+      <c r="F22">
+        <v>92.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>3512109</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="D23">
+        <v>140</v>
+      </c>
+      <c r="E23">
+        <v>140</v>
+      </c>
+      <c r="F23">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>3515478</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="E24">
+        <v>105</v>
+      </c>
+      <c r="F24">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>3515460</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>108</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25">
+        <v>114</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>3515521</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>105</v>
+      </c>
+      <c r="F26">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2801338</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>122</v>
+      </c>
+      <c r="F27">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>3536475</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>111</v>
+      </c>
+      <c r="F28">
+        <v>103.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>3515456</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="D29">
+        <v>125</v>
+      </c>
+      <c r="E29">
+        <v>137</v>
+      </c>
+      <c r="F29">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>3515531</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>121</v>
+      </c>
+      <c r="E30">
+        <v>165</v>
+      </c>
+      <c r="F30">
+        <v>143</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>3515541</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="D31">
+        <v>140</v>
+      </c>
+      <c r="E31">
+        <v>140</v>
+      </c>
+      <c r="F31">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>3513547</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="D32">
+        <v>250</v>
+      </c>
+      <c r="E32">
+        <v>265</v>
+      </c>
+      <c r="F32">
+        <v>257.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3515543</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="D33">
+        <v>139</v>
+      </c>
+      <c r="E33">
+        <v>139</v>
+      </c>
+      <c r="F33">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3514588</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>139</v>
+      </c>
+      <c r="E34">
+        <v>165</v>
+      </c>
+      <c r="F34">
+        <v>152</v>
+      </c>
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>3518111</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="D35">
+        <v>413</v>
+      </c>
+      <c r="E35">
+        <v>413</v>
+      </c>
+      <c r="F35">
+        <v>413</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3576933</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
